--- a/public/template/RPL Template.xlsx
+++ b/public/template/RPL Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A526C9-A570-4044-A059-7973D1BB46C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>Tahap Kegiatan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jenis DPH </t>
   </si>
   <si>
@@ -77,12 +73,16 @@
   </si>
   <si>
     <t>Institusi Pemantauan Lingkungan Hidup</t>
+  </si>
+  <si>
+    <t>Tahap Kegiatan
+(Pra Konstruksi/Konstruksi/Operasi/Pasca Operasi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -122,6 +122,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,80 +439,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/RPL Template.xlsx
+++ b/public/template/RPL Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A526C9-A570-4044-A059-7973D1BB46C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B155C6-3615-4C15-83B8-0B01ED2DB9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Jenis DPH </t>
-  </si>
-  <si>
     <t>Jenis Dampak yang Timbul (Dapat di ambien dan dapat di sumbernya)</t>
   </si>
   <si>
@@ -77,6 +74,10 @@
   <si>
     <t>Tahap Kegiatan
 (Pra Konstruksi/Konstruksi/Operasi/Pasca Operasi)</t>
+  </si>
+  <si>
+    <t>Jenis DPH
+(Penting/Lainnya)</t>
   </si>
 </sst>
 </file>
@@ -118,13 +119,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +450,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
@@ -462,57 +463,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/RPL Template.xlsx
+++ b/public/template/RPL Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B155C6-3615-4C15-83B8-0B01ED2DB9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CB7694-80EB-4C61-97C1-65FCC21275DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A995" sqref="A995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,6 +524,14 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1000" xr:uid="{3E8DB0E0-1227-4B19-911A-052E6F371B05}">
+      <formula1>"Pra Konstruksi, Konstruksi, Operasi, Pasca Operasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1000" xr:uid="{780ED6C3-4F2E-429C-BD9C-DC758AD112E1}">
+      <formula1>"Penting,Lainnya"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
